--- a/IMKL2.x/8-begrippen/IMKL_begrippenkader-met-inspire-v2.0.xlsx
+++ b/IMKL2.x/8-begrippen/IMKL_begrippenkader-met-inspire-v2.0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcobrattinga/Documents/Geonovum/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjanssen\Documents\GitHub\imkl2015-review\IMKL2.x\8-begrippen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF33BC63-3597-E147-8473-882135C428C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611D6945-BB1C-409E-8A20-2513C312C75B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="27700" windowHeight="16020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19320" yWindow="-7680" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URI schema" sheetId="1" r:id="rId1"/>
@@ -3981,12 +3981,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4001,14 +4007,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -4353,16 +4374,16 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="72.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -4379,7 +4400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>776</v>
       </c>
@@ -4393,7 +4414,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4404,7 +4425,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -4418,7 +4439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -4432,7 +4453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -4446,7 +4467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>776</v>
       </c>
@@ -4467,23 +4488,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -4512,7 +4533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>776</v>
       </c>
@@ -4532,7 +4553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>776</v>
       </c>
@@ -4555,7 +4576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>776</v>
       </c>
@@ -4575,7 +4596,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>776</v>
       </c>
@@ -4604,303 +4625,303 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54379242-972C-8C41-8C15-60AC32AAC1F2}">
   <dimension ref="A1:F238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="45.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="47.42578125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1097</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="3" t="str">
         <f>VLOOKUP(A2,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>AanduidingEisVoorzorgsmaatregel</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="D3" t="str">
+      <c r="D3" s="3" t="str">
         <f>VLOOKUP(A3,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>AangrijpingHorizontaal</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="3" t="str">
         <f>VLOOKUP(A4,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>AangrijpingVerticaal</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="3" t="str">
         <f>VLOOKUP(A5,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>AantalKabelsLeidingen</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>1186</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>1098</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="D6" t="e">
+      <c r="D6" s="3" t="e">
         <f>VLOOKUP(A6,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>983</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>675</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="D7" t="e">
+      <c r="D7" s="3" t="e">
         <f>VLOOKUP(A7,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>984</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="D8" t="e">
+      <c r="D8" s="3" t="e">
         <f>VLOOKUP(A8,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="D9" t="e">
+      <c r="D9" s="3" t="e">
         <f>VLOOKUP(A9,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>785</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="D10" t="e">
+      <c r="D10" s="3" t="e">
         <f>VLOOKUP(A10,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="D11" t="e">
+      <c r="D11" s="3" t="e">
         <f>VLOOKUP(A11,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>988</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="D12" t="e">
+      <c r="D12" s="3" t="e">
         <f>VLOOKUP(A12,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>991</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="D13" t="e">
+      <c r="D13" s="3" t="e">
         <f>VLOOKUP(A13,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="D14" t="e">
+      <c r="D14" s="3" t="e">
         <f>VLOOKUP(A14,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>994</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>793</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="D15" t="e">
+      <c r="D15" s="3" t="e">
         <f>VLOOKUP(A15,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>1187</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D16" t="e">
+      <c r="D16" s="3" t="e">
         <f>VLOOKUP(A16,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -4908,143 +4929,143 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>796</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="D17" t="e">
+      <c r="D17" s="3" t="e">
         <f>VLOOKUP(A17,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>995</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" s="3" t="str">
         <f>VLOOKUP(A18,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Adres_extraDetailinfo</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="3" t="str">
         <f>VLOOKUP(A19,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Annotatie</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="3" t="str">
         <f>VLOOKUP(A20,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>AnnotatieType</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="3" t="str">
         <f>VLOOKUP(A21,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Appurtenance</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="D22" t="e">
+      <c r="D22" s="3" t="e">
         <f>VLOOKUP(A22,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>1188</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="D23" t="e">
+      <c r="D23" s="3" t="e">
         <f>VLOOKUP(A23,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>1102</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="D24" t="e">
+      <c r="D24" s="3" t="e">
         <f>VLOOKUP(A24,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -5052,413 +5073,413 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="D25" t="e">
+      <c r="D25" s="3" t="e">
         <f>VLOOKUP(A25,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>998</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="D26" t="e">
+      <c r="D26" s="3" t="e">
         <f>VLOOKUP(A26,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="D27" t="e">
+      <c r="D27" s="3" t="e">
         <f>VLOOKUP(A27,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>999</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="D28" t="e">
+      <c r="D28" s="3" t="e">
         <f>VLOOKUP(A28,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>687</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="4" t="s">
         <v>688</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="D29" t="e">
+      <c r="D29" s="3" t="e">
         <f>VLOOKUP(A29,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="4" t="s">
         <v>690</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="D30" t="e">
+      <c r="D30" s="3" t="e">
         <f>VLOOKUP(A30,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="D31" t="e">
+      <c r="D31" s="3" t="e">
         <f>VLOOKUP(A31,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>1195</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="4" t="s">
         <v>681</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="D32" t="e">
+      <c r="D32" s="3" t="e">
         <f>VLOOKUP(A32,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>1107</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D33" s="3" t="str">
         <f>VLOOKUP(A33,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>BestandIdentificator</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="4" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" s="3" t="str">
         <f>VLOOKUP(A34,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>BestandLocatie</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="4" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D35" s="3" t="str">
         <f>VLOOKUP(A35,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>BestandMediaType</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="4" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>1000</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="4" t="s">
         <v>694</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D36" t="e">
+      <c r="D36" s="3" t="e">
         <f>VLOOKUP(A36,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="4" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>1001</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="D37" t="e">
+      <c r="D37" s="3" t="e">
         <f>VLOOKUP(A37,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="4" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D38" s="3" t="str">
         <f>VLOOKUP(A38,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Bgt_id</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="4" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="D39" t="e">
+      <c r="D39" s="3" t="e">
         <f>VLOOKUP(A39,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="4" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>1200</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="D40" t="e">
+      <c r="D40" s="3" t="e">
         <f>VLOOKUP(A40,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="4" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D41" s="3" t="str">
         <f>VLOOKUP(A41,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>BijlageType</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="4" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>1002</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D42" s="3" t="str">
         <f>VLOOKUP(A42,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>BovengrondsZichtbaar_containerLeidingelement</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="4" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="D43" t="e">
+      <c r="D43" s="3" t="e">
         <f>VLOOKUP(A43,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="4" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>1004</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="4" t="s">
         <v>700</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="D44" t="e">
+      <c r="D44" s="3" t="e">
         <f>VLOOKUP(A44,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="4" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="4" t="s">
         <v>701</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D45" s="3" t="str">
         <f>VLOOKUP(A45,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>BuismateriaalType</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="4" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D46" s="3" t="str">
         <f>VLOOKUP(A46,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>BuisSpecifiek</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="4" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>1109</v>
       </c>
-      <c r="D47" t="e">
+      <c r="D47" s="3" t="e">
         <f>VLOOKUP(A47,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -5466,35 +5487,35 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="D48" t="e">
+      <c r="D48" s="3" t="e">
         <f>VLOOKUP(A48,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="4" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>1206</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="D49" t="e">
+      <c r="D49" s="3" t="e">
         <f>VLOOKUP(A49,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -5502,53 +5523,53 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="D50" t="e">
+      <c r="D50" s="3" t="e">
         <f>VLOOKUP(A50,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="4" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>1007</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D51" t="e">
+      <c r="D51" s="3" t="e">
         <f>VLOOKUP(A51,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="4" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>1208</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>1112</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="D52" t="e">
+      <c r="D52" s="3" t="e">
         <f>VLOOKUP(A52,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -5556,251 +5577,251 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>1008</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="D53" t="e">
+      <c r="D53" s="3" t="e">
         <f>VLOOKUP(A53,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="4" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>1009</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="D54" t="e">
+      <c r="D54" s="3" t="e">
         <f>VLOOKUP(A54,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="4" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="D55" t="e">
+      <c r="D55" s="3" t="e">
         <f>VLOOKUP(A55,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="4" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="4" t="s">
         <v>702</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="D56" t="e">
+      <c r="D56" s="3" t="e">
         <f>VLOOKUP(A56,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="4" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="4" t="s">
         <v>707</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="D57" t="str">
+      <c r="D57" s="3" t="str">
         <f>VLOOKUP(A57,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>ContainerLeidingelement</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="4" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>1014</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="D58" t="e">
+      <c r="D58" s="3" t="e">
         <f>VLOOKUP(A58,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="4" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D59" t="str">
+      <c r="D59" s="3" t="str">
         <f>VLOOKUP(A59,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>DatumOpmetingDieptePeil</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="4" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="D60" t="str">
+      <c r="D60" s="3" t="str">
         <f>VLOOKUP(A60,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>DatumOpmetingMaaiveldPeil</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="4" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D61" s="3" t="str">
         <f>VLOOKUP(A61,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Diepte</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="4" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D62" t="str">
+      <c r="D62" s="3" t="str">
         <f>VLOOKUP(A62,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>DiepteAangrijpingspunt</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="4" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D63" s="3" t="str">
         <f>VLOOKUP(A63,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Dieptelegging</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="4" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>712</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="D64" t="str">
+      <c r="D64" s="3" t="str">
         <f>VLOOKUP(A64,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>DiepteNap</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="4" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="4" t="s">
         <v>713</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="D65" t="str">
+      <c r="D65" s="3" t="str">
         <f>VLOOKUP(A65,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>DiepteNauwkeurigheid</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="4" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="4" t="s">
         <v>714</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="D66" t="str">
+      <c r="D66" s="3" t="str">
         <f>VLOOKUP(A66,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>DieptePeil</v>
       </c>
@@ -5808,35 +5829,35 @@
         <v>838</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D67" t="str">
+      <c r="D67" s="3" t="str">
         <f>VLOOKUP(A67,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>DiepteTovMaaiveld</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="4" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>1156</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="4" t="s">
         <v>1115</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="D68" t="e">
+      <c r="D68" s="3" t="e">
         <f>VLOOKUP(A68,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -5844,161 +5865,161 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="D69" t="str">
+      <c r="D69" s="3" t="str">
         <f>VLOOKUP(A69,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Duct</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="4" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>716</v>
       </c>
-      <c r="D70" t="str">
+      <c r="D70" s="3" t="str">
         <f>VLOOKUP(A70,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>EanCode</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="4" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>1209</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="D71" t="e">
+      <c r="D71" s="3" t="e">
         <f>VLOOKUP(A71,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="4" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="D72" t="e">
+      <c r="D72" s="3" t="e">
         <f>VLOOKUP(A72,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="4" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>1017</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="D73" t="e">
+      <c r="D73" s="3" t="e">
         <f>VLOOKUP(A73,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="4" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>1015</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="D74" t="e">
+      <c r="D74" s="3" t="e">
         <f>VLOOKUP(A74,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="4" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="4" t="s">
         <v>718</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="D75" t="e">
+      <c r="D75" s="3" t="e">
         <f>VLOOKUP(A75,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="4" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D76" t="str">
+      <c r="D76" s="3" t="str">
         <f>VLOOKUP(A76,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>EisVoorzorgsmaatregelBijlage</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E76" s="4" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="4" t="s">
         <v>1119</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="D77" t="e">
+      <c r="D77" s="3" t="e">
         <f>VLOOKUP(A77,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -6006,35 +6027,35 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="78" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D78" t="str">
+      <c r="D78" s="3" t="str">
         <f>VLOOKUP(A78,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Elektriciteitskabel</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E78" s="4" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="4" t="s">
         <v>1121</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="D79" t="e">
+      <c r="D79" s="3" t="e">
         <f>VLOOKUP(A79,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -6042,71 +6063,71 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>1217</v>
       </c>
-      <c r="D80" t="e">
+      <c r="D80" s="3" t="e">
         <f>VLOOKUP(A80,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E80" s="4" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="D81" t="e">
+      <c r="D81" s="3" t="e">
         <f>VLOOKUP(A81,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="4" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="D82" t="e">
+      <c r="D82" s="3" t="e">
         <f>VLOOKUP(A82,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="4" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="4" t="s">
         <v>719</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="D83" t="e">
+      <c r="D83" s="3" t="e">
         <f>VLOOKUP(A83,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -6114,161 +6135,161 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="84" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
         <v>1124</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="D84" t="e">
+      <c r="D84" s="3" t="e">
         <f>VLOOKUP(A84,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E84" s="4" t="s">
         <v>1125</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>1021</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="4" t="s">
         <v>851</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="D85" t="e">
+      <c r="D85" s="3" t="e">
         <f>VLOOKUP(A85,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E85" s="4" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="86" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="4" t="s">
         <v>720</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="D86" t="str">
+      <c r="D86" s="3" t="str">
         <f>VLOOKUP(A86,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>ExtraDetailinfo</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" s="4" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="D87" t="e">
+      <c r="D87" s="3" t="e">
         <f>VLOOKUP(A87,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="4" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>1225</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="D88" t="e">
+      <c r="D88" s="3" t="e">
         <f>VLOOKUP(A88,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="4" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D89" t="str">
+      <c r="D89" s="3" t="str">
         <f>VLOOKUP(A89,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>ExtraInformatie</v>
       </c>
-      <c r="E89" s="2" t="s">
+      <c r="E89" s="4" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="D90" t="str">
+      <c r="D90" s="3" t="str">
         <f>VLOOKUP(A90,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>ExtraInfoType</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E90" s="4" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>1022</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="D91" t="e">
+      <c r="D91" s="3" t="e">
         <f>VLOOKUP(A91,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E91" s="4" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="92" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>1227</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="4" t="s">
         <v>1127</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="D92" t="e">
+      <c r="D92" s="3" t="e">
         <f>VLOOKUP(A92,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -6276,53 +6297,53 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>724</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="4" t="s">
         <v>725</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="D93" t="e">
+      <c r="D93" s="3" t="e">
         <f>VLOOKUP(A93,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" s="4" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="D94" t="e">
+      <c r="D94" s="3" t="e">
         <f>VLOOKUP(A94,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="4" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="95" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>1228</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="4" t="s">
         <v>1129</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="D95" t="e">
+      <c r="D95" s="3" t="e">
         <f>VLOOKUP(A95,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -6330,17 +6351,17 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+    <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>1229</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="4" t="s">
         <v>1131</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="D96" t="e">
+      <c r="D96" s="3" t="e">
         <f>VLOOKUP(A96,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -6348,17 +6369,17 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+    <row r="97" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="D97" t="e">
+      <c r="D97" s="3" t="e">
         <f>VLOOKUP(A97,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -6366,107 +6387,107 @@
         <v>862</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="98" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="D98" t="e">
+      <c r="D98" s="3" t="e">
         <f>VLOOKUP(A98,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" s="4" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>1025</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="D99" t="e">
+      <c r="D99" s="3" t="e">
         <f>VLOOKUP(A99,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="E99" s="4" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>1023</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="D100" t="e">
+      <c r="D100" s="3" t="e">
         <f>VLOOKUP(A100,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E100" s="2" t="s">
+      <c r="E100" s="4" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="D101" t="str">
+      <c r="D101" s="3" t="str">
         <f>VLOOKUP(A101,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Geometrie3d</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="E101" s="4" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+    <row r="102" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>866</v>
       </c>
-      <c r="D102" t="e">
+      <c r="D102" s="3" t="e">
         <f>VLOOKUP(A102,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E102" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
         <v>1230</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D103" t="e">
+      <c r="D103" s="3" t="e">
         <f>VLOOKUP(A103,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -6474,197 +6495,197 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+    <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>1231</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="D104" t="e">
+      <c r="D104" s="3" t="e">
         <f>VLOOKUP(A104,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="E104" s="4" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+    <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>1232</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="4" t="s">
         <v>1135</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="D105" t="e">
+      <c r="D105" s="3" t="e">
         <f>VLOOKUP(A105,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="E105" s="4" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>1233</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="4" t="s">
         <v>1137</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="D106" t="e">
+      <c r="D106" s="3" t="e">
         <f>VLOOKUP(A106,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="4" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>1234</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="4" t="s">
         <v>1139</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>1139</v>
       </c>
-      <c r="D107" t="e">
+      <c r="D107" s="3" t="e">
         <f>VLOOKUP(A107,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="4" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="4" t="s">
         <v>729</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="D108" t="e">
+      <c r="D108" s="3" t="e">
         <f>VLOOKUP(A108,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="4" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="4" t="s">
         <v>730</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="D109" t="e">
+      <c r="D109" s="3" t="e">
         <f>VLOOKUP(A109,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="4" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>1235</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="D110" t="e">
+      <c r="D110" s="3" t="e">
         <f>VLOOKUP(A110,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="4" t="s">
         <v>1141</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>1237</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="4" t="s">
         <v>731</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="D111" t="e">
+      <c r="D111" s="3" t="e">
         <f>VLOOKUP(A111,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="4" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>1239</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D112" t="e">
+      <c r="D112" s="3" t="e">
         <f>VLOOKUP(A112,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E112" s="2" t="s">
+      <c r="E112" s="4" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D113" t="str">
+      <c r="D113" s="3" t="str">
         <f>VLOOKUP(A113,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Hoogte</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="4" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>1240</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="4" t="s">
         <v>1143</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="D114" t="e">
+      <c r="D114" s="3" t="e">
         <f>VLOOKUP(A114,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -6672,35 +6693,35 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>1035</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="D115" t="e">
+      <c r="D115" s="3" t="e">
         <f>VLOOKUP(A115,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="4" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="116" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D116" t="str">
+      <c r="D116" s="3" t="str">
         <f>VLOOKUP(A116,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Huisletter</v>
       </c>
@@ -6708,17 +6729,17 @@
         <v>874</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D117" t="str">
+      <c r="D117" s="3" t="str">
         <f>VLOOKUP(A117,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Huisnummer</v>
       </c>
@@ -6726,17 +6747,17 @@
         <v>875</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="118" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D118" t="str">
+      <c r="D118" s="3" t="str">
         <f>VLOOKUP(A118,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Huisnummertoevoeging</v>
       </c>
@@ -6744,35 +6765,35 @@
         <v>876</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="119" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D119" t="str">
+      <c r="D119" s="3" t="str">
         <f>VLOOKUP(A119,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Identificatie</v>
       </c>
-      <c r="E119" s="2" t="s">
+      <c r="E119" s="4" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+    <row r="120" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
         <v>1163</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D120" t="e">
+      <c r="D120" s="3" t="e">
         <f>VLOOKUP(A120,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -6780,161 +6801,161 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="121" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>733</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="D121" t="str">
+      <c r="D121" s="3" t="str">
         <f>VLOOKUP(A121,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Imklbasis</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="4" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+    <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>1036</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="4" t="s">
         <v>879</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="D122" t="e">
+      <c r="D122" s="3" t="e">
         <f>VLOOKUP(A122,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="E122" s="4" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>1037</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="4" t="s">
         <v>735</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="D123" t="e">
+      <c r="D123" s="3" t="e">
         <f>VLOOKUP(A123,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E123" s="2" t="s">
+      <c r="E123" s="4" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>1241</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="2" t="s">
         <v>1242</v>
       </c>
-      <c r="D124" t="e">
+      <c r="D124" s="3" t="e">
         <f>VLOOKUP(A124,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="4" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
         <v>1243</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="4" t="s">
         <v>736</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="D125" t="e">
+      <c r="D125" s="3" t="e">
         <f>VLOOKUP(A125,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="4" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
         <v>1038</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="4" t="s">
         <v>737</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D126" t="e">
+      <c r="D126" s="3" t="e">
         <f>VLOOKUP(A126,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E126" s="2" t="s">
+      <c r="E126" s="4" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
         <v>1245</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="2" t="s">
         <v>1246</v>
       </c>
-      <c r="D127" t="e">
+      <c r="D127" s="3" t="e">
         <f>VLOOKUP(A127,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E127" s="2" t="s">
+      <c r="E127" s="4" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
         <v>1247</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="4" t="s">
         <v>1147</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="D128" t="e">
+      <c r="D128" s="3" t="e">
         <f>VLOOKUP(A128,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E128" s="2" t="s">
+      <c r="E128" s="4" t="s">
         <v>1149</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+    <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
         <v>1249</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D129" t="e">
+      <c r="D129" s="3" t="e">
         <f>VLOOKUP(A129,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -6942,377 +6963,377 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
         <v>1039</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="4" t="s">
         <v>884</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="D130" t="e">
+      <c r="D130" s="3" t="e">
         <f>VLOOKUP(A130,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E130" s="2" t="s">
+      <c r="E130" s="4" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="131" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D131" t="str">
+      <c r="D131" s="3" t="str">
         <f>VLOOKUP(A131,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Kabelbed</v>
       </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="4" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="132" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="D132" t="str">
+      <c r="D132" s="3" t="str">
         <f>VLOOKUP(A132,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>KabelEnLeidingContainer</v>
       </c>
-      <c r="E132" s="2" t="s">
+      <c r="E132" s="4" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D133" t="str">
+      <c r="D133" s="3" t="str">
         <f>VLOOKUP(A133,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>KabelOfLeiding</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="E133" s="4" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D134" t="str">
+      <c r="D134" s="3" t="str">
         <f>VLOOKUP(A134,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>KabelSpecifiek</v>
       </c>
-      <c r="E134" s="2" t="s">
+      <c r="E134" s="4" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="135" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D135" t="str">
+      <c r="D135" s="3" t="str">
         <f>VLOOKUP(A135,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Kast</v>
       </c>
-      <c r="E135" s="2" t="s">
+      <c r="E135" s="4" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="136" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
         <v>1040</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="D136" t="e">
+      <c r="D136" s="3" t="e">
         <f>VLOOKUP(A136,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E136" s="2" t="s">
+      <c r="E136" s="4" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+    <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
         <v>1041</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="D137" t="e">
+      <c r="D137" s="3" t="e">
         <f>VLOOKUP(A137,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E137" s="2" t="s">
+      <c r="E137" s="4" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+    <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D138" t="e">
+      <c r="D138" s="3" t="e">
         <f>VLOOKUP(A138,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E138" s="2" t="s">
+      <c r="E138" s="4" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+    <row r="139" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
         <v>895</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="D139" t="e">
+      <c r="D139" s="3" t="e">
         <f>VLOOKUP(A139,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E139" s="2" t="s">
+      <c r="E139" s="4" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>1250</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="4" t="s">
         <v>741</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="D140" t="e">
+      <c r="D140" s="3" t="e">
         <f>VLOOKUP(A140,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E140" s="2" t="s">
+      <c r="E140" s="4" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
         <v>1045</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="D141" t="e">
+      <c r="D141" s="3" t="e">
         <f>VLOOKUP(A141,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E141" s="2" t="s">
+      <c r="E141" s="4" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+    <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
         <v>1043</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="D142" t="e">
+      <c r="D142" s="3" t="e">
         <f>VLOOKUP(A142,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E142" s="2" t="s">
+      <c r="E142" s="4" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+    <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D143" t="str">
+      <c r="D143" s="3" t="str">
         <f>VLOOKUP(A143,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Leidingelement</v>
       </c>
-      <c r="E143" s="2" t="s">
+      <c r="E143" s="4" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="144" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
         <v>1047</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="4" t="s">
         <v>742</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="D144" t="e">
+      <c r="D144" s="3" t="e">
         <f>VLOOKUP(A144,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E144" s="2" t="s">
+      <c r="E144" s="4" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+    <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
         <v>1052</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="D145" t="str">
+      <c r="D145" s="3" t="str">
         <f>VLOOKUP(A145,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Ligging_extraDetailinfo</v>
       </c>
-      <c r="E145" s="2" t="s">
+      <c r="E145" s="4" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
         <v>1252</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="D146" t="e">
+      <c r="D146" s="3" t="e">
         <f>VLOOKUP(A146,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E146" s="2" t="s">
+      <c r="E146" s="4" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
         <v>1050</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="D147" t="str">
+      <c r="D147" s="3" t="str">
         <f>VLOOKUP(A147,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Ligging_eigenTopografie</v>
       </c>
-      <c r="E147" s="2" t="s">
+      <c r="E147" s="4" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
         <v>1048</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="4" t="s">
         <v>743</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="D148" t="str">
+      <c r="D148" s="3" t="str">
         <f>VLOOKUP(A148,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Ligging_diepte</v>
       </c>
-      <c r="E148" s="2" t="s">
+      <c r="E148" s="4" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
         <v>1254</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="2" t="s">
         <v>1255</v>
       </c>
-      <c r="D149" t="e">
+      <c r="D149" s="3" t="e">
         <f>VLOOKUP(A149,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E149" s="2" t="s">
+      <c r="E149" s="4" t="s">
         <v>1153</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="150" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
         <v>1256</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="D150" t="e">
+      <c r="D150" s="3" t="e">
         <f>VLOOKUP(A150,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7320,35 +7341,35 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
         <v>1258</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="D151" t="e">
+      <c r="D151" s="3" t="e">
         <f>VLOOKUP(A151,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E151" s="2" t="s">
+      <c r="E151" s="4" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="152" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
         <v>1260</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="4" t="s">
         <v>1151</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="D152" t="e">
+      <c r="D152" s="3" t="e">
         <f>VLOOKUP(A152,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7356,17 +7377,17 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="153" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="4" t="s">
         <v>1159</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="D153" t="e">
+      <c r="D153" s="3" t="e">
         <f>VLOOKUP(A153,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7374,17 +7395,17 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+    <row r="154" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
         <v>1152</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="4" t="s">
         <v>1161</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="D154" t="e">
+      <c r="D154" s="3" t="e">
         <f>VLOOKUP(A154,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7392,17 +7413,17 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="155" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
         <v>1262</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="D155" t="e">
+      <c r="D155" s="3" t="e">
         <f>VLOOKUP(A155,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7410,251 +7431,251 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+    <row r="156" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="4" t="s">
         <v>905</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="2" t="s">
         <v>905</v>
       </c>
-      <c r="D156" t="e">
+      <c r="D156" s="3" t="e">
         <f>VLOOKUP(A156,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E156" s="2" t="s">
+      <c r="E156" s="4" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="157" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
         <v>1055</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="D157" t="e">
+      <c r="D157" s="3" t="e">
         <f>VLOOKUP(A157,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E157" s="2" t="s">
+      <c r="E157" s="4" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>1056</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="4" t="s">
         <v>749</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="D158" t="str">
+      <c r="D158" s="3" t="str">
         <f>VLOOKUP(A158,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>LokaalId</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" s="4" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="D159" t="str">
+      <c r="D159" s="3" t="str">
         <f>VLOOKUP(A159,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>MaaiveldPeil</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" s="4" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+    <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D160" t="str">
+      <c r="D160" s="3" t="str">
         <f>VLOOKUP(A160,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Maatvoering</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" s="4" t="s">
         <v>1101</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="D161" t="str">
+      <c r="D161" s="3" t="str">
         <f>VLOOKUP(A161,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>MaatvoeringsType</v>
       </c>
-      <c r="E161" s="2" t="s">
+      <c r="E161" s="4" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+    <row r="162" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D162" t="str">
+      <c r="D162" s="3" t="str">
         <f>VLOOKUP(A162,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Mangat</v>
       </c>
-      <c r="E162" s="2" t="s">
+      <c r="E162" s="4" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D163" t="str">
+      <c r="D163" s="3" t="str">
         <f>VLOOKUP(A163,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Mantelbuis</v>
       </c>
-      <c r="E163" s="2" t="s">
+      <c r="E163" s="4" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    <row r="164" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D164" t="str">
+      <c r="D164" s="3" t="str">
         <f>VLOOKUP(A164,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Mast</v>
       </c>
-      <c r="E164" s="2" t="s">
+      <c r="E164" s="4" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
         <v>1057</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="D165" t="e">
+      <c r="D165" s="3" t="e">
         <f>VLOOKUP(A165,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E165" s="2" t="s">
+      <c r="E165" s="4" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
         <v>1058</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="D166" t="e">
+      <c r="D166" s="3" t="e">
         <f>VLOOKUP(A166,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E166" s="2" t="s">
+      <c r="E166" s="4" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
         <v>1263</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="D167" t="e">
+      <c r="D167" s="3" t="e">
         <f>VLOOKUP(A167,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E167" s="2" t="s">
+      <c r="E167" s="4" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
         <v>1265</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="D168" t="e">
+      <c r="D168" s="3" t="e">
         <f>VLOOKUP(A168,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E168" s="2" t="s">
+      <c r="E168" s="4" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="169" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
         <v>1267</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="D169" t="e">
+      <c r="D169" s="3" t="e">
         <f>VLOOKUP(A169,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7662,107 +7683,107 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D170" t="str">
+      <c r="D170" s="3" t="str">
         <f>VLOOKUP(A170,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Nen3610id</v>
       </c>
-      <c r="E170" s="2" t="s">
+      <c r="E170" s="4" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
         <v>1269</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="4" t="s">
         <v>1166</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="D171" t="e">
+      <c r="D171" s="3" t="e">
         <f>VLOOKUP(A171,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E171" s="2" t="s">
+      <c r="E171" s="4" t="s">
         <v>1167</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+    <row r="172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="D172" t="str">
+      <c r="D172" s="3" t="str">
         <f>VLOOKUP(A172,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>NetbeheerderNetAanduiding</v>
       </c>
-      <c r="E172" s="2" t="s">
+      <c r="E172" s="4" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+    <row r="173" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="D173" t="str">
+      <c r="D173" s="3" t="str">
         <f>VLOOKUP(A173,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>NetbeheerderNetOmschrijving</v>
       </c>
-      <c r="E173" s="2" t="s">
+      <c r="E173" s="4" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="174" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="D174" t="str">
+      <c r="D174" s="3" t="str">
         <f>VLOOKUP(A174,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>NetbeheerderWerkAanduiding</v>
       </c>
-      <c r="E174" s="2" t="s">
+      <c r="E174" s="4" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="175" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
         <v>1116</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="4" t="s">
         <v>1168</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="D175" t="e">
+      <c r="D175" s="3" t="e">
         <f>VLOOKUP(A175,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7770,17 +7791,17 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+    <row r="176" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
         <v>1103</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="4" t="s">
         <v>1170</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="D176" t="e">
+      <c r="D176" s="3" t="e">
         <f>VLOOKUP(A176,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7788,17 +7809,17 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+    <row r="177" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
         <v>1133</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="4" t="s">
         <v>1172</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="D177" t="e">
+      <c r="D177" s="3" t="e">
         <f>VLOOKUP(A177,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -7806,284 +7827,284 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="178" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="4" t="s">
         <v>753</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="D178" t="str">
+      <c r="D178" s="3" t="str">
         <f>VLOOKUP(A178,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>OlieGasChemicalienPijpleiding</v>
       </c>
-      <c r="E178" s="2" t="s">
+      <c r="E178" s="4" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
         <v>1060</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="D179" t="e">
+      <c r="D179" s="3" t="e">
         <f>VLOOKUP(A179,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E179" s="2" t="s">
+      <c r="E179" s="4" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+    <row r="180" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
         <v>1061</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="4" t="s">
         <v>755</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="D180" t="e">
+      <c r="D180" s="3" t="e">
         <f>VLOOKUP(A180,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E180" s="2" t="s">
+      <c r="E180" s="4" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+    <row r="181" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
         <v>1062</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="D181" t="e">
+      <c r="D181" s="3" t="e">
         <f>VLOOKUP(A181,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E181" s="2" t="s">
+      <c r="E181" s="4" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="182" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="3" t="s">
         <v>925</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="D182" t="e">
+      <c r="D182" s="3" t="e">
         <f>VLOOKUP(A182,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E182" s="2" t="s">
+      <c r="E182" s="4" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="183" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D183" t="str">
+      <c r="D183" s="3" t="str">
         <f>VLOOKUP(A183,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>OpenbareRuimteNaam</v>
       </c>
-      <c r="E183" s="2" t="s">
+      <c r="E183" s="4" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="3" t="s">
         <v>1065</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="D184" t="e">
+      <c r="D184" s="3" t="e">
         <f>VLOOKUP(A184,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="E184" s="4" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
         <v>930</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="D185" t="e">
+      <c r="D185" s="3" t="e">
         <f>VLOOKUP(A185,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E185" s="2" t="s">
+      <c r="E185" s="4" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
         <v>1068</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="D186" t="e">
+      <c r="D186" s="3" t="e">
         <f>VLOOKUP(A186,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
         <v>1071</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="D187" t="e">
+      <c r="D187" s="3" t="e">
         <f>VLOOKUP(A187,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E187" s="2" t="s">
+      <c r="E187" s="4" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
         <v>1066</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="D188" t="e">
+      <c r="D188" s="3" t="e">
         <f>VLOOKUP(A188,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E188" s="2" t="s">
+      <c r="E188" s="4" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
         <v>1270</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="D189" t="e">
+      <c r="D189" s="3" t="e">
         <f>VLOOKUP(A189,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E189" s="2" t="s">
+      <c r="E189" s="4" t="s">
         <v>1174</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+    <row r="190" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
         <v>1272</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="D190" t="e">
+      <c r="D190" s="3" t="e">
         <f>VLOOKUP(A190,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E190" s="2" t="s">
+      <c r="E190" s="4" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+    <row r="191" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
         <v>760</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="D191" t="e">
+      <c r="D191" s="3" t="e">
         <f>VLOOKUP(A191,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E191" s="2" t="s">
+      <c r="E191" s="4" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+    <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
         <v>935</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="4" t="s">
         <v>936</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="2" t="s">
         <v>936</v>
       </c>
-      <c r="D192" t="e">
+      <c r="D192" s="3" t="e">
         <f>VLOOKUP(A192,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E192" s="2" t="s">
+      <c r="E192" s="4" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+    <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
         <v>1073</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="D193" t="e">
+      <c r="D193" s="3" t="e">
         <f>VLOOKUP(A193,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8091,107 +8112,107 @@
         <v>938</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+    <row r="194" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="D194" t="e">
+      <c r="D194" s="3" t="e">
         <f>VLOOKUP(A194,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E194" s="2" t="s">
+      <c r="E194" s="4" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="3" t="s">
         <v>1076</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="D195" t="e">
+      <c r="D195" s="3" t="e">
         <f>VLOOKUP(A195,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="E195" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+    <row r="196" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
         <v>940</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="D196" t="e">
+      <c r="D196" s="3" t="e">
         <f>VLOOKUP(A196,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E196" s="2" t="s">
+      <c r="E196" s="4" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="3" t="s">
         <v>1078</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="4" t="s">
         <v>943</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="D197" t="e">
+      <c r="D197" s="3" t="e">
         <f>VLOOKUP(A197,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E197" s="2" t="s">
+      <c r="E197" s="4" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="3" t="s">
         <v>1081</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="D198" t="e">
+      <c r="D198" s="3" t="e">
         <f>VLOOKUP(A198,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E198" s="2" t="s">
+      <c r="E198" s="4" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+    <row r="199" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
         <v>1079</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="D199" t="e">
+      <c r="D199" s="3" t="e">
         <f>VLOOKUP(A199,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8199,17 +8220,17 @@
         <v>945</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+    <row r="200" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="4" t="s">
         <v>765</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="D200" t="e">
+      <c r="D200" s="3" t="e">
         <f>VLOOKUP(A200,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8217,122 +8238,122 @@
         <v>947</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="3" t="s">
         <v>1084</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="4" t="s">
         <v>766</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="D201" t="e">
+      <c r="D201" s="3" t="e">
         <f>VLOOKUP(A201,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+    <row r="202" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="3" t="s">
         <v>1085</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="D202" t="e">
+      <c r="D202" s="3" t="e">
         <f>VLOOKUP(A202,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E202" s="2" t="s">
+      <c r="E202" s="4" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    <row r="203" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A203" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D203" t="str">
+      <c r="D203" s="3" t="str">
         <f>VLOOKUP(A203,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Rioolleiding</v>
       </c>
-      <c r="E203" s="2" t="s">
+      <c r="E203" s="4" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+    <row r="204" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D204" t="str">
+      <c r="D204" s="3" t="str">
         <f>VLOOKUP(A204,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Rotatiehoek</v>
       </c>
-      <c r="E204" s="2" t="s">
+      <c r="E204" s="4" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+    <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="D205" t="str">
+      <c r="D205" s="3" t="str">
         <f>VLOOKUP(A205,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>RotatiehoekSymbool</v>
       </c>
-      <c r="E205" s="2" t="s">
+      <c r="E205" s="4" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="3" t="s">
         <v>1086</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="D206" t="e">
+      <c r="D206" s="3" t="e">
         <f>VLOOKUP(A206,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E206" s="2" t="s">
+      <c r="E206" s="4" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+    <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="3" t="s">
         <v>1274</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="D207" t="e">
+      <c r="D207" s="3" t="e">
         <f>VLOOKUP(A207,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8340,17 +8361,17 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+    <row r="208" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
         <v>1275</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="4" t="s">
         <v>1175</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="D208" t="e">
+      <c r="D208" s="3" t="e">
         <f>VLOOKUP(A208,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8358,17 +8379,17 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row r="209" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D209" t="str">
+      <c r="D209" s="3" t="str">
         <f>VLOOKUP(A209,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>StandaardDieptelegging</v>
       </c>
@@ -8376,143 +8397,143 @@
         <v>953</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+    <row r="210" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="4" t="s">
         <v>770</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="D210" t="e">
+      <c r="D210" s="3" t="e">
         <f>VLOOKUP(A210,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E210" s="4" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
         <v>1276</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="4" t="s">
         <v>1178</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="D211" t="e">
+      <c r="D211" s="3" t="e">
         <f>VLOOKUP(A211,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E211" s="2" t="s">
+      <c r="E211" s="4" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D212" t="str">
+      <c r="D212" s="3" t="str">
         <f>VLOOKUP(A212,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Status</v>
       </c>
-      <c r="E212" s="2" t="s">
+      <c r="E212" s="4" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+    <row r="213" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D213" t="str">
+      <c r="D213" s="3" t="str">
         <f>VLOOKUP(A213,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>TechnischGebouw</v>
       </c>
-      <c r="E213" s="2" t="s">
+      <c r="E213" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+    <row r="214" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D214" t="str">
+      <c r="D214" s="3" t="str">
         <f>VLOOKUP(A214,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Telecommunicatiekabel</v>
       </c>
-      <c r="E214" s="2" t="s">
+      <c r="E214" s="4" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="D215" t="e">
+      <c r="D215" s="3" t="e">
         <f>VLOOKUP(A215,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E215" s="2" t="s">
+      <c r="E215" s="4" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
         <v>1277</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="2" t="s">
         <v>1278</v>
       </c>
-      <c r="D216" t="e">
+      <c r="D216" s="3" t="e">
         <f>VLOOKUP(A216,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E216" s="2" t="s">
+      <c r="E216" s="4" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+    <row r="217" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
         <v>1279</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="D217" t="e">
+      <c r="D217" s="3" t="e">
         <f>VLOOKUP(A217,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8520,17 +8541,17 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+    <row r="218" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
         <v>1280</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D218" t="e">
+      <c r="D218" s="3" t="e">
         <f>VLOOKUP(A218,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8538,197 +8559,197 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+    <row r="219" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
         <v>1090</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="D219" t="e">
+      <c r="D219" s="3" t="e">
         <f>VLOOKUP(A219,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E219" s="2" t="s">
+      <c r="E219" s="4" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+    <row r="220" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
         <v>1281</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="D220" t="e">
+      <c r="D220" s="3" t="e">
         <f>VLOOKUP(A220,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E220" s="2" t="s">
+      <c r="E220" s="4" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+    <row r="221" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="4" t="s">
         <v>771</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="D221" t="str">
+      <c r="D221" s="3" t="str">
         <f>VLOOKUP(A221,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>ThermischePijpleiding</v>
       </c>
-      <c r="E221" s="2" t="s">
+      <c r="E221" s="4" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D222" t="str">
+      <c r="D222" s="3" t="str">
         <f>VLOOKUP(A222,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Toelichting</v>
       </c>
-      <c r="E222" s="2" t="s">
+      <c r="E222" s="4" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+    <row r="223" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
         <v>624</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D223" t="str">
+      <c r="D223" s="3" t="str">
         <f>VLOOKUP(A223,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Toren</v>
       </c>
-      <c r="E223" s="2" t="s">
+      <c r="E223" s="4" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
         <v>647</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D224" t="str">
+      <c r="D224" s="3" t="str">
         <f>VLOOKUP(A224,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>TypeTopografischObject</v>
       </c>
-      <c r="E224" s="2" t="s">
+      <c r="E224" s="4" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+    <row r="225" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
         <v>1283</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="D225" t="e">
+      <c r="D225" s="3" t="e">
         <f>VLOOKUP(A225,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E225" s="2" t="s">
+      <c r="E225" s="4" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+    <row r="226" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
         <v>1285</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="2" t="s">
         <v>1286</v>
       </c>
-      <c r="D226" t="e">
+      <c r="D226" s="3" t="e">
         <f>VLOOKUP(A226,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E226" s="2" t="s">
+      <c r="E226" s="4" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+    <row r="227" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="4" t="s">
         <v>773</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="D227" t="e">
+      <c r="D227" s="3" t="e">
         <f>VLOOKUP(A227,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E227" s="2" t="s">
+      <c r="E227" s="4" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
         <v>651</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="D228" t="str">
+      <c r="D228" s="3" t="str">
         <f>VLOOKUP(A228,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Versie</v>
       </c>
-      <c r="E228" s="2" t="s">
+      <c r="E228" s="4" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="229" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
         <v>1287</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="4" t="s">
         <v>1183</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="D229" t="e">
+      <c r="D229" s="3" t="e">
         <f>VLOOKUP(A229,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8736,125 +8757,125 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="D230" t="e">
+      <c r="D230" s="3" t="e">
         <f>VLOOKUP(A230,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E230" s="2" t="s">
+      <c r="E230" s="4" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+    <row r="231" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
         <v>1093</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="D231" t="str">
+      <c r="D231" s="3" t="str">
         <f>VLOOKUP(A231,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Vlakgeometrie2d</v>
       </c>
-      <c r="E231" s="2" t="s">
+      <c r="E231" s="4" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+    <row r="232" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
         <v>1094</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="D232" t="e">
+      <c r="D232" s="3" t="e">
         <f>VLOOKUP(A232,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E232" s="2" t="s">
+      <c r="E232" s="4" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+    <row r="233" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="D233" t="e">
+      <c r="D233" s="3" t="e">
         <f>VLOOKUP(A233,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E233" s="2" t="s">
+      <c r="E233" s="4" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+    <row r="234" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D234" t="str">
+      <c r="D234" s="3" t="str">
         <f>VLOOKUP(A234,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>Waterleiding</v>
       </c>
-      <c r="E234" s="2" t="s">
+      <c r="E234" s="4" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
         <v>1288</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="D235" t="e">
+      <c r="D235" s="3" t="e">
         <f>VLOOKUP(A235,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E235" s="2" t="s">
+      <c r="E235" s="4" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+    <row r="236" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
         <v>1290</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="D236" t="e">
+      <c r="D236" s="3" t="e">
         <f>VLOOKUP(A236,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
@@ -8862,35 +8883,35 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+    <row r="237" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="D237" t="e">
+      <c r="D237" s="3" t="e">
         <f>VLOOKUP(A237,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="E237" s="2" t="s">
+      <c r="E237" s="4" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+    <row r="238" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="4" t="s">
         <v>980</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="D238" t="str">
+      <c r="D238" s="3" t="str">
         <f>VLOOKUP(A238,'Begrippen-origineel'!A:A,1,FALSE)</f>
         <v>WoonplaatsNaam</v>
       </c>
@@ -8900,6 +8921,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8907,19 +8929,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.1640625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>280</v>
       </c>
@@ -8933,7 +8955,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -8945,7 +8967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>282</v>
       </c>
@@ -8960,7 +8982,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>283</v>
       </c>
@@ -8975,7 +8997,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>284</v>
       </c>
@@ -8990,7 +9012,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>285</v>
       </c>
@@ -9005,7 +9027,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>287</v>
       </c>
@@ -9020,7 +9042,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>288</v>
       </c>
@@ -9035,7 +9057,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>286</v>
       </c>
@@ -9050,7 +9072,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>289</v>
       </c>
@@ -9062,7 +9084,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>290</v>
       </c>
@@ -9077,7 +9099,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>299</v>
       </c>
@@ -9092,7 +9114,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>301</v>
       </c>
@@ -9107,7 +9129,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>302</v>
       </c>
@@ -9122,7 +9144,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>303</v>
       </c>
@@ -9137,7 +9159,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>305</v>
       </c>
@@ -9152,7 +9174,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>307</v>
       </c>
@@ -9167,7 +9189,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -9182,7 +9204,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>311</v>
       </c>
@@ -9197,7 +9219,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>313</v>
       </c>
@@ -9209,7 +9231,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>314</v>
       </c>
@@ -9221,7 +9243,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>315</v>
       </c>
@@ -9233,7 +9255,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>316</v>
       </c>
@@ -9248,7 +9270,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>318</v>
       </c>
@@ -9263,7 +9285,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>320</v>
       </c>
@@ -9275,7 +9297,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>321</v>
       </c>
@@ -9287,7 +9309,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>322</v>
       </c>
@@ -9302,7 +9324,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>324</v>
       </c>
@@ -9317,7 +9339,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>326</v>
       </c>
@@ -9332,7 +9354,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>328</v>
       </c>
@@ -9347,7 +9369,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>330</v>
       </c>
@@ -9362,7 +9384,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>332</v>
       </c>
@@ -9377,7 +9399,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>334</v>
       </c>
@@ -9392,7 +9414,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>336</v>
       </c>
@@ -9407,7 +9429,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>338</v>
       </c>
@@ -9422,7 +9444,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>340</v>
       </c>
@@ -9437,7 +9459,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>342</v>
       </c>
@@ -9452,7 +9474,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>344</v>
       </c>
@@ -9467,7 +9489,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>346</v>
       </c>
@@ -9482,7 +9504,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>348</v>
       </c>
@@ -9497,7 +9519,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>350</v>
       </c>
@@ -9512,7 +9534,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>352</v>
       </c>
@@ -9527,7 +9549,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>353</v>
       </c>
@@ -9539,7 +9561,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>354</v>
       </c>
@@ -9554,7 +9576,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>355</v>
       </c>
@@ -9569,7 +9591,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>357</v>
       </c>
@@ -9581,7 +9603,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>358</v>
       </c>
@@ -9596,7 +9618,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>359</v>
       </c>
@@ -9611,7 +9633,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>361</v>
       </c>
@@ -9623,7 +9645,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>362</v>
       </c>
@@ -9635,7 +9657,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>363</v>
       </c>
@@ -9650,7 +9672,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>365</v>
       </c>
@@ -9665,7 +9687,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>367</v>
       </c>
@@ -9677,7 +9699,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>368</v>
       </c>
@@ -9692,7 +9714,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>370</v>
       </c>
@@ -9707,7 +9729,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>372</v>
       </c>
@@ -9722,7 +9744,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>373</v>
       </c>
@@ -9737,7 +9759,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>375</v>
       </c>
@@ -9752,7 +9774,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>377</v>
       </c>
@@ -9767,7 +9789,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>379</v>
       </c>
@@ -9782,7 +9804,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>381</v>
       </c>
@@ -9797,7 +9819,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>383</v>
       </c>
@@ -9812,7 +9834,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>385</v>
       </c>
@@ -9827,7 +9849,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>387</v>
       </c>
@@ -9839,7 +9861,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>388</v>
       </c>
@@ -9851,7 +9873,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>389</v>
       </c>
@@ -9866,7 +9888,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>391</v>
       </c>
@@ -9881,7 +9903,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>393</v>
       </c>
@@ -9896,7 +9918,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>395</v>
       </c>
@@ -9911,7 +9933,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>397</v>
       </c>
@@ -9926,7 +9948,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>398</v>
       </c>
@@ -9941,7 +9963,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>400</v>
       </c>
@@ -9956,7 +9978,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>402</v>
       </c>
@@ -9971,7 +9993,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>404</v>
       </c>
@@ -9986,7 +10008,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>406</v>
       </c>
@@ -10001,7 +10023,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>408</v>
       </c>
@@ -10013,7 +10035,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>409</v>
       </c>
@@ -10028,7 +10050,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>411</v>
       </c>
@@ -10043,7 +10065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>412</v>
       </c>
@@ -10058,7 +10080,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>414</v>
       </c>
@@ -10070,7 +10092,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>415</v>
       </c>
@@ -10085,7 +10107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>416</v>
       </c>
@@ -10100,7 +10122,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>418</v>
       </c>
@@ -10115,7 +10137,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>420</v>
       </c>
@@ -10130,7 +10152,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>422</v>
       </c>
@@ -10145,7 +10167,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>424</v>
       </c>
@@ -10160,7 +10182,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>426</v>
       </c>
@@ -10172,7 +10194,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>427</v>
       </c>
@@ -10184,7 +10206,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>428</v>
       </c>
@@ -10196,7 +10218,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>429</v>
       </c>
@@ -10208,7 +10230,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>430</v>
       </c>
@@ -10220,7 +10242,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>431</v>
       </c>
@@ -10232,7 +10254,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>432</v>
       </c>
@@ -10244,7 +10266,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>433</v>
       </c>
@@ -10259,7 +10281,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>435</v>
       </c>
@@ -10274,7 +10296,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>436</v>
       </c>
@@ -10289,7 +10311,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>438</v>
       </c>
@@ -10304,7 +10326,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>440</v>
       </c>
@@ -10319,7 +10341,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>442</v>
       </c>
@@ -10331,7 +10353,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>443</v>
       </c>
@@ -10343,7 +10365,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>444</v>
       </c>
@@ -10358,7 +10380,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>446</v>
       </c>
@@ -10373,7 +10395,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>447</v>
       </c>
@@ -10385,7 +10407,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>448</v>
       </c>
@@ -10397,7 +10419,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>449</v>
       </c>
@@ -10409,7 +10431,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>450</v>
       </c>
@@ -10421,7 +10443,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>451</v>
       </c>
@@ -10436,7 +10458,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>453</v>
       </c>
@@ -10451,7 +10473,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>455</v>
       </c>
@@ -10466,7 +10488,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>457</v>
       </c>
@@ -10481,7 +10503,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>459</v>
       </c>
@@ -10496,7 +10518,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>461</v>
       </c>
@@ -10511,7 +10533,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>463</v>
       </c>
@@ -10526,7 +10548,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>465</v>
       </c>
@@ -10541,7 +10563,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>467</v>
       </c>
@@ -10553,7 +10575,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>468</v>
       </c>
@@ -10568,7 +10590,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>470</v>
       </c>
@@ -10583,7 +10605,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>471</v>
       </c>
@@ -10595,7 +10617,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>472</v>
       </c>
@@ -10610,7 +10632,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>474</v>
       </c>
@@ -10625,7 +10647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>475</v>
       </c>
@@ -10640,7 +10662,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>476</v>
       </c>
@@ -10655,7 +10677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>477</v>
       </c>
@@ -10670,7 +10692,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>479</v>
       </c>
@@ -10685,7 +10707,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>481</v>
       </c>
@@ -10700,7 +10722,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>483</v>
       </c>
@@ -10715,7 +10737,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>485</v>
       </c>
@@ -10730,7 +10752,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>487</v>
       </c>
@@ -10745,7 +10767,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>489</v>
       </c>
@@ -10757,7 +10779,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>490</v>
       </c>
@@ -10769,7 +10791,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>491</v>
       </c>
@@ -10784,7 +10806,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>493</v>
       </c>
@@ -10799,7 +10821,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>495</v>
       </c>
@@ -10814,7 +10836,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>497</v>
       </c>
@@ -10829,7 +10851,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>499</v>
       </c>
@@ -10844,7 +10866,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>501</v>
       </c>
@@ -10856,7 +10878,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>502</v>
       </c>
@@ -10871,7 +10893,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>504</v>
       </c>
@@ -10883,7 +10905,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>505</v>
       </c>
@@ -10898,7 +10920,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>507</v>
       </c>
@@ -10913,7 +10935,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>509</v>
       </c>
@@ -10928,7 +10950,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>511</v>
       </c>
@@ -10943,7 +10965,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>513</v>
       </c>
@@ -10958,7 +10980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>514</v>
       </c>
@@ -10973,7 +10995,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>516</v>
       </c>
@@ -10988,7 +11010,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>518</v>
       </c>
@@ -11000,7 +11022,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>519</v>
       </c>
@@ -11015,7 +11037,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>521</v>
       </c>
@@ -11030,7 +11052,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>523</v>
       </c>
@@ -11045,7 +11067,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>524</v>
       </c>
@@ -11060,7 +11082,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>525</v>
       </c>
@@ -11072,7 +11094,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>526</v>
       </c>
@@ -11084,7 +11106,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>527</v>
       </c>
@@ -11096,7 +11118,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>528</v>
       </c>
@@ -11108,7 +11130,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>529</v>
       </c>
@@ -11123,7 +11145,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>531</v>
       </c>
@@ -11138,7 +11160,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>533</v>
       </c>
@@ -11153,7 +11175,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>535</v>
       </c>
@@ -11165,7 +11187,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>536</v>
       </c>
@@ -11177,7 +11199,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>537</v>
       </c>
@@ -11192,7 +11214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>538</v>
       </c>
@@ -11207,7 +11229,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>540</v>
       </c>
@@ -11222,7 +11244,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>542</v>
       </c>
@@ -11237,7 +11259,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>544</v>
       </c>
@@ -11252,7 +11274,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>546</v>
       </c>
@@ -11267,7 +11289,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>548</v>
       </c>
@@ -11282,7 +11304,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>550</v>
       </c>
@@ -11297,7 +11319,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>552</v>
       </c>
@@ -11312,7 +11334,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>554</v>
       </c>
@@ -11324,7 +11346,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>555</v>
       </c>
@@ -11339,7 +11361,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>557</v>
       </c>
@@ -11351,7 +11373,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>558</v>
       </c>
@@ -11366,7 +11388,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>560</v>
       </c>
@@ -11378,7 +11400,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>561</v>
       </c>
@@ -11390,7 +11412,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>562</v>
       </c>
@@ -11405,7 +11427,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>563</v>
       </c>
@@ -11420,7 +11442,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>565</v>
       </c>
@@ -11432,7 +11454,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>566</v>
       </c>
@@ -11444,7 +11466,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>567</v>
       </c>
@@ -11456,7 +11478,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>568</v>
       </c>
@@ -11471,7 +11493,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>570</v>
       </c>
@@ -11486,7 +11508,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>572</v>
       </c>
@@ -11501,7 +11523,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>574</v>
       </c>
@@ -11513,7 +11535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>575</v>
       </c>
@@ -11528,7 +11550,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>577</v>
       </c>
@@ -11543,7 +11565,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>579</v>
       </c>
@@ -11558,7 +11580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>580</v>
       </c>
@@ -11573,7 +11595,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>581</v>
       </c>
@@ -11588,7 +11610,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>583</v>
       </c>
@@ -11600,7 +11622,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>584</v>
       </c>
@@ -11612,7 +11634,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>585</v>
       </c>
@@ -11624,7 +11646,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>586</v>
       </c>
@@ -11636,7 +11658,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>587</v>
       </c>
@@ -11651,7 +11673,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>589</v>
       </c>
@@ -11666,7 +11688,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>591</v>
       </c>
@@ -11681,7 +11703,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>593</v>
       </c>
@@ -11696,7 +11718,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>595</v>
       </c>
@@ -11711,7 +11733,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>596</v>
       </c>
@@ -11723,7 +11745,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>597</v>
       </c>
@@ -11738,7 +11760,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>599</v>
       </c>
@@ -11753,7 +11775,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>601</v>
       </c>
@@ -11768,7 +11790,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>603</v>
       </c>
@@ -11780,7 +11802,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>604</v>
       </c>
@@ -11792,7 +11814,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>605</v>
       </c>
@@ -11804,7 +11826,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>606</v>
       </c>
@@ -11816,7 +11838,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>607</v>
       </c>
@@ -11831,7 +11853,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>609</v>
       </c>
@@ -11846,7 +11868,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>610</v>
       </c>
@@ -11861,7 +11883,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>612</v>
       </c>
@@ -11873,7 +11895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>613</v>
       </c>
@@ -11888,7 +11910,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>615</v>
       </c>
@@ -11903,7 +11925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>616</v>
       </c>
@@ -11918,7 +11940,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>618</v>
       </c>
@@ -11933,7 +11955,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>620</v>
       </c>
@@ -11948,7 +11970,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>622</v>
       </c>
@@ -11963,7 +11985,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>624</v>
       </c>
@@ -11978,7 +12000,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>626</v>
       </c>
@@ -11993,7 +12015,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>628</v>
       </c>
@@ -12008,7 +12030,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>630</v>
       </c>
@@ -12023,7 +12045,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>631</v>
       </c>
@@ -12038,7 +12060,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>633</v>
       </c>
@@ -12053,7 +12075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>634</v>
       </c>
@@ -12065,7 +12087,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>635</v>
       </c>
@@ -12080,7 +12102,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>637</v>
       </c>
@@ -12095,7 +12117,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>639</v>
       </c>
@@ -12110,7 +12132,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>641</v>
       </c>
@@ -12125,7 +12147,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>643</v>
       </c>
@@ -12140,7 +12162,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>645</v>
       </c>
@@ -12155,7 +12177,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>647</v>
       </c>
@@ -12170,7 +12192,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>649</v>
       </c>
@@ -12185,7 +12207,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>651</v>
       </c>
@@ -12200,7 +12222,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>653</v>
       </c>
@@ -12212,7 +12234,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>654</v>
       </c>
@@ -12224,7 +12246,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>655</v>
       </c>
@@ -12239,7 +12261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>656</v>
       </c>
@@ -12254,7 +12276,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>658</v>
       </c>
@@ -12269,7 +12291,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>660</v>
       </c>
@@ -12281,7 +12303,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>661</v>
       </c>
@@ -12296,7 +12318,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>663</v>
       </c>
@@ -12308,7 +12330,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>664</v>
       </c>
@@ -12320,7 +12342,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>665</v>
       </c>
@@ -12335,7 +12357,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>667</v>
       </c>
@@ -12347,7 +12369,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>668</v>
       </c>
@@ -12359,7 +12381,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>669</v>
       </c>
@@ -12374,7 +12396,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>671</v>
       </c>
